--- a/DataSets/DMResults.xlsx
+++ b/DataSets/DMResults.xlsx
@@ -18,12 +18,76 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Minnen</t>
+  </si>
+  <si>
+    <t>Balasubramanian</t>
+  </si>
+  <si>
+    <t>1.19633E-319</t>
+  </si>
+  <si>
+    <t>1.2212E-319</t>
+  </si>
+  <si>
+    <t>1.853057E-318</t>
+  </si>
+  <si>
+    <t>1.89939E-318</t>
+  </si>
+  <si>
+    <t>3.78659E-318</t>
+  </si>
+  <si>
+    <t>2.0138723E-317</t>
+  </si>
+  <si>
+    <t>9.91322205E-316</t>
+  </si>
+  <si>
+    <t>1.984430106E-315</t>
+  </si>
+  <si>
+    <t>2.02569227E-315</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -37,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +109,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,66 +476,277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C9:C18"/>
+  <dimension ref="D7:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="56" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="9" spans="3:3">
-      <c r="C9" s="1">
+    <row r="7" spans="4:11">
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11">
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11">
+      <c r="D9" s="2">
         <v>6.0852424314968298E-192</v>
       </c>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="1">
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3.5623530761483201E-289</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6.5167565190871802E-305</v>
+      </c>
+      <c r="K9" s="1">
+        <v>6.5016432385034502E-305</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11">
+      <c r="D10" s="2">
         <v>6.0852423848898198E-192</v>
       </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="1">
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.08187277842541E-288</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6.7115207299197898E-305</v>
+      </c>
+      <c r="K10" s="1">
+        <v>6.7005809266347696E-305</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11">
+      <c r="D11" s="2">
         <v>6.0852423848898198E-192</v>
       </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="1">
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.8815530425259301E-288</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3.8770747171037E-296</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2.1103152409900801E-288</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11">
+      <c r="D12" s="2">
         <v>6.0793245905276601E-192</v>
       </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="1">
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2.16642054847874E-288</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3.9929476050049197E-296</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4.04738154814817E-286</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11">
+      <c r="D13" s="2">
         <v>6.0793245905276601E-192</v>
       </c>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="1">
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.7874553983258401E-288</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4.38695949145256E-296</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4.0473847627337201E-286</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11">
+      <c r="D14" s="2">
         <v>6.0793245905276601E-192</v>
       </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="1">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1">
+        <v>7.21515059278991E-287</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4.5180711419806701E-296</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4.0473847627337201E-286</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11">
+      <c r="D15" s="2">
         <v>6.0852424314968298E-192</v>
       </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="1">
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.44481410534596E-286</v>
+      </c>
+      <c r="I15" s="1">
+        <v>7.5252830108950597E-289</v>
+      </c>
+      <c r="K15" s="1">
+        <v>4.0473847627337201E-286</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11">
+      <c r="D16" s="2">
         <v>6.0852424314968298E-192</v>
       </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="1">
+      <c r="E16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.44481410534596E-286</v>
+      </c>
+      <c r="I16" s="1">
+        <v>7.7501887293481198E-289</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4.0473847627337201E-286</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11">
+      <c r="D17" s="2">
         <v>6.0852424314968298E-192</v>
       </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="1">
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.4742598597455399E-286</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2.1018084077313799E-288</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4.0473847627337201E-286</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11">
+      <c r="D18" s="2">
         <v>6.0852424314968298E-192</v>
       </c>
+      <c r="E18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.4742598597455399E-286</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2.1646244811344901E-288</v>
+      </c>
+      <c r="K18" s="1">
+        <v>4.0473847627337201E-286</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11">
+      <c r="E19" s="1" t="e">
+        <f xml:space="preserve"> (#REF! +#REF! +#REF! +#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11">
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="4:11">
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="4:11">
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="4:11">
+      <c r="D24"/>
+      <c r="G24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11">
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="4:11">
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="4:11">
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="4:11">
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="4:11">
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="4:11">
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="4:11">
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="4:11">
+      <c r="D32"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
